--- a/QR/qr_links.xlsx
+++ b/QR/qr_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EAN13\QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51678D-B4D4-4C7E-BE1F-2E60FE73BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEFC7AC-25A2-48D8-B0D9-17BF7C970185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5235" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,13 +546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
